--- a/CashFlow/SNAP_cashflow.xlsx
+++ b/CashFlow/SNAP_cashflow.xlsx
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>71145000.0</v>
+        <v>319000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>20374000.0</v>
+        <v>247000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>140856000.0</v>
+        <v>304408000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>160664000.0</v>
+        <v>265651000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>166120000.0</v>
+        <v>214386000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>146063000.0</v>
